--- a/frontend/src/assets/Bank.xlsx
+++ b/frontend/src/assets/Bank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jay/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jay/Documents/Finance/frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5D4787-84A6-DD49-B02C-E37DECB650A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D8D6D-8FF1-934C-A3F3-D83D4C0483D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="620" windowWidth="28040" windowHeight="15920" xr2:uid="{FB563A07-8CD1-EB4D-B38A-60430A0FD5EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -438,7 +438,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,147 +567,34 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>346827297493</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>46015</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>346827297493</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>21000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>46016</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>346827297493</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>26000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2">
-        <v>46017</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>346827297493</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2">
-        <v>46018</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>346827297493</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2">
-        <v>46019</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>346827297493</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2">
-        <v>46020</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
